--- a/Sprint#5/pruebas individuales David/Log pruebas individuales RF-23.xlsx
+++ b/Sprint#5/pruebas individuales David/Log pruebas individuales RF-23.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Documents\GitHub\SIGAB\SIGAB\Sprint#5\pruebas individuales Oscar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\SIGAB\Sprint#5\pruebas individuales David\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C14978-D029-4942-916A-23C31A0AA62C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 20" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Observación</t>
   </si>
@@ -96,19 +97,32 @@
     <t>Datos pruebas actividades (EXCEL)</t>
   </si>
   <si>
-    <t>Oscar Alvarado Gutiérrez</t>
-  </si>
-  <si>
     <t>Autorizar una actividad interna.</t>
   </si>
   <si>
     <t>La verificación es brindada únicamente por un usuario autorizado de la administración</t>
+  </si>
+  <si>
+    <t>David Aguilar Rojas</t>
+  </si>
+  <si>
+    <t>Los usuarios que pueden  brindar autorización a una actividad son los siguientes:
+Dirección
+Subdirección
+Académica responsable de Aseguramiento de la Calidad de la Carrera
+Académica responsable de SIGAB</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Al momento de actualizar se muestra el indicador de actividad aceptada.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,24 +332,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -358,11 +354,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,7 +411,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A708F16F-7A7C-43B3-96D9-7956B2A00F35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A708F16F-7A7C-43B3-96D9-7956B2A00F35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -463,7 +477,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77B5A9F6-0714-411B-A079-BBA359F1F23B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B5A9F6-0714-411B-A079-BBA359F1F23B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,27 +831,27 @@
     <col min="1" max="1" width="64.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="5" max="5" width="103.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -847,19 +861,19 @@
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -873,23 +887,23 @@
       <c r="B5" s="11">
         <v>30</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,7 +911,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -912,12 +926,12 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -936,97 +950,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="C12" s="6"/>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="16" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+    </row>
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1043,7 +1076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1056,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
